--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/reg_exceptional_holiday.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/reg_exceptional_holiday.xlsx
@@ -56,10 +56,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="5">
     <font>
@@ -150,16 +149,16 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -181,30 +180,30 @@
   </sheetPr>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F:F"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="8.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="8.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -212,631 +211,631 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="2" t="n">
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="2" t="n">
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
+      <c r="A4" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="n">
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
+      <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="n">
         <v>10004</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2" t="n">
+      <c r="C5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
+      <c r="A6" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="1" t="n">
         <v>10005</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="2" t="n">
+      <c r="C6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2" t="n">
+      <c r="C7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
+      <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="C8" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="2" t="n">
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
+      <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="2" t="n">
+      <c r="C9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
+      <c r="A10" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="1" t="n">
         <v>10009</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="2" t="n">
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
+      <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="n">
         <v>10010</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="2" t="n">
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
+      <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="1" t="n">
         <v>10011</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="2" t="n">
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
+      <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B13" s="1" t="n">
         <v>10012</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="2" t="n">
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
+      <c r="A14" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>10013</v>
       </c>
-      <c r="C14" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="2" t="n">
+      <c r="C14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
+      <c r="A15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B15" s="1" t="n">
         <v>10014</v>
       </c>
-      <c r="C15" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="2" t="n">
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A16" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="1" t="n">
         <v>10015</v>
       </c>
-      <c r="C16" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="2" t="n">
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
+      <c r="A17" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B17" s="1" t="n">
         <v>10001</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="2" t="n">
+      <c r="C17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
+      <c r="A18" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B18" s="1" t="n">
         <v>10002</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="2" t="n">
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
+      <c r="A19" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="1" t="n">
         <v>10003</v>
       </c>
-      <c r="C19" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="2" t="n">
+      <c r="C19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
+      <c r="A20" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B20" s="1" t="n">
         <v>10004</v>
       </c>
-      <c r="C20" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="2" t="n">
+      <c r="C20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
+      <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B21" s="1" t="n">
         <v>10005</v>
       </c>
-      <c r="C21" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F21" s="2" t="n">
+      <c r="C21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
+      <c r="A22" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B22" s="1" t="n">
         <v>10006</v>
       </c>
-      <c r="C22" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="2" t="n">
+      <c r="C22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
+      <c r="A23" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B23" s="1" t="n">
         <v>10007</v>
       </c>
-      <c r="C23" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="2" t="n">
+      <c r="C23" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="A24" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B24" s="1" t="n">
         <v>10008</v>
       </c>
-      <c r="C24" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="2" t="n">
+      <c r="C24" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
+      <c r="A25" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B25" s="1" t="n">
         <v>10009</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="2" t="n">
+      <c r="C25" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="A26" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B26" s="1" t="n">
         <v>10010</v>
       </c>
-      <c r="C26" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="2" t="n">
+      <c r="C26" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
+      <c r="A27" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B27" s="1" t="n">
         <v>10011</v>
       </c>
-      <c r="C27" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="2" t="n">
+      <c r="C27" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
+      <c r="A28" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="1" t="n">
         <v>10012</v>
       </c>
-      <c r="C28" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D28" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="2" t="n">
+      <c r="C28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
+      <c r="A29" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B29" s="1" t="n">
         <v>10013</v>
       </c>
-      <c r="C29" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="2" t="n">
+      <c r="C29" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
+      <c r="A30" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B30" s="1" t="n">
         <v>10014</v>
       </c>
-      <c r="C30" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="2" t="n">
+      <c r="C30" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
+      <c r="A31" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B31" s="1" t="n">
         <v>10015</v>
       </c>
-      <c r="C31" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F31" s="2" t="n">
+      <c r="C31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="1" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>

--- a/deployment/v3/mosip/kernel/masterdata/upload/xlsx/reg_exceptional_holiday.xlsx
+++ b/deployment/v3/mosip/kernel/masterdata/upload/xlsx/reg_exceptional_holiday.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="11">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">Emergency Holiday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRUE</t>
   </si>
   <si>
     <t xml:space="preserve">9/25/2019</t>
@@ -181,7 +184,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F:F"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -226,9 +229,8 @@
       <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -247,9 +249,8 @@
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F3" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -268,9 +269,8 @@
       <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F4" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -289,9 +289,8 @@
       <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F5" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -310,9 +309,8 @@
       <c r="E6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F6" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -331,9 +329,8 @@
       <c r="E7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F7" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -352,9 +349,8 @@
       <c r="E8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F8" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -373,9 +369,8 @@
       <c r="E9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F9" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -394,9 +389,8 @@
       <c r="E10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F10" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -415,9 +409,8 @@
       <c r="E11" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F11" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -436,9 +429,8 @@
       <c r="E12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F12" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -457,9 +449,8 @@
       <c r="E13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F13" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -478,9 +469,8 @@
       <c r="E14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F14" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -499,9 +489,8 @@
       <c r="E15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F15" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -520,9 +509,8 @@
       <c r="E16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F16" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -533,7 +521,7 @@
         <v>10001</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>8</v>
@@ -541,9 +529,8 @@
       <c r="E17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F17" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -554,7 +541,7 @@
         <v>10002</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>8</v>
@@ -562,9 +549,8 @@
       <c r="E18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F18" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -575,7 +561,7 @@
         <v>10003</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>8</v>
@@ -583,9 +569,8 @@
       <c r="E19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F19" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -596,7 +581,7 @@
         <v>10004</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>8</v>
@@ -604,9 +589,8 @@
       <c r="E20" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F20" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F20" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -617,7 +601,7 @@
         <v>10005</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>8</v>
@@ -625,9 +609,8 @@
       <c r="E21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F21" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F21" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -638,7 +621,7 @@
         <v>10006</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>8</v>
@@ -646,9 +629,8 @@
       <c r="E22" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F22" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -659,7 +641,7 @@
         <v>10007</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>8</v>
@@ -667,9 +649,8 @@
       <c r="E23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F23" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -680,7 +661,7 @@
         <v>10008</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>8</v>
@@ -688,9 +669,8 @@
       <c r="E24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F24" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -701,7 +681,7 @@
         <v>10009</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>8</v>
@@ -709,9 +689,8 @@
       <c r="E25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F25" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -722,7 +701,7 @@
         <v>10010</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>8</v>
@@ -730,9 +709,8 @@
       <c r="E26" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F26" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -743,7 +721,7 @@
         <v>10011</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>8</v>
@@ -751,9 +729,8 @@
       <c r="E27" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F27" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -764,7 +741,7 @@
         <v>10012</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>8</v>
@@ -772,9 +749,8 @@
       <c r="E28" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F28" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F28" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -785,7 +761,7 @@
         <v>10013</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>8</v>
@@ -793,9 +769,8 @@
       <c r="E29" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F29" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -806,7 +781,7 @@
         <v>10014</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>8</v>
@@ -814,9 +789,8 @@
       <c r="E30" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F30" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -827,7 +801,7 @@
         <v>10015</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>8</v>
@@ -835,9 +809,8 @@
       <c r="E31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F31" s="1" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="F31" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
